--- a/jpcore-r4/feature/swg2-ImagingStudy_Radiology/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/feature/swg2-ImagingStudy_Radiology/StructureDefinition-jp-patient.xlsx
@@ -1163,7 +1163,7 @@
   <si>
     <t>Patient may have multiple addresses with different uses or applicable periods.
 患者は、異なる用途または適用可能な期間で複数の住所を持っている可能性がある。
-【JP-Core仕様】FHIRデータ型仕様に従って、以下の案とした。
+【JP Core仕様】FHIRデータ型仕様に従って、以下の案とした。
 ・住所が構造化されている場合、住所パート Address.country、Address.postalcode、Address.state、Address.city、Address.line に分割して記載する。
 ・住所が構造化されていない場合は、Address.text に記述する。
 ・各住所パートとtext は、両方存在してもよい。
@@ -1303,7 +1303,7 @@
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
 １MBを超えないこと。
-【JP-Core仕様】state要素とcity要素で表現しなかったそのあとの住所部分を番地以降の部分も含めてすべていれる。
+【JP Core仕様】state要素とcity要素で表現しなかったそのあとの住所部分を番地以降の部分も含めてすべていれる。
 英数字は半角でも全角でもよい。文字列の前後および途中に空白文字を含めないこと。
 繰り返し要素が許されているので、区切りを表現したい場合には、複数要素に分けて格納してもよい。
 例：本郷7-3-1
@@ -1339,7 +1339,7 @@
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
 １MBを超えないこと。
-【JP-Core仕様】郡市区町村部分だけを「郡」「市」「区」「町」「村」などの文字を含めて設定する。
+【JP Core仕様】郡市区町村部分だけを「郡」「市」「区」「町」「村」などの文字を含めて設定する。
 例：文京区</t>
   </si>
   <si>
@@ -1369,7 +1369,7 @@
   </si>
   <si>
     <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.
-【JP-Core仕様】日本の住所では使用しない。</t>
+【JP Core仕様】日本の住所では使用しない。</t>
   </si>
   <si>
     <t>Madison</t>
